--- a/엑셀테스트.xlsx
+++ b/엑셀테스트.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FB6AE25-D58D-4AEE-9FBF-07FD1D3BF0E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90747E0-D862-430A-B0FC-8F653D4F1C4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29115" windowHeight="10410" xr2:uid="{373AFD5F-A3BF-47A6-91F2-8C592435EFB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="회원관리" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="급여관리" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +135,26 @@
   </si>
   <si>
     <t>생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이름 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,143 +532,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4035AA2B-6330-44B5-8130-BE3E5750484C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>27</v>
       </c>
     </row>
@@ -708,4 +765,49 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37F7A03-1DC3-4998-818D-47F32D1A5DA6}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>